--- a/软件工程/完整题库.xlsx
+++ b/软件工程/完整题库.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\24-25-2 期末复习资料\软件工程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFD3C5-5018-4110-BA36-D45CA7013127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D070A-2DFA-4A2B-BB63-8E3112D22355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="527">
   <si>
     <t>题型</t>
   </si>
@@ -1603,6 +1603,10 @@
   </si>
   <si>
     <t>( ) 是一个模块直接控制的模块数目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1976,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4267,7 +4271,7 @@
         <v>335</v>
       </c>
       <c r="C202" t="s">
-        <v>309</v>
+        <v>526</v>
       </c>
       <c r="D202" t="s">
         <v>336</v>
